--- a/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
+++ b/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
@@ -7,16 +7,146 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Velázquez" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+  <si>
+    <t>Tienda</t>
+  </si>
+  <si>
+    <t>Nombre_TPV</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>cierre_tpv_desc</t>
+  </si>
+  <si>
+    <t>Nombre_MdP</t>
+  </si>
+  <si>
+    <t>total_ventas</t>
+  </si>
+  <si>
+    <t>total_operaciones</t>
+  </si>
+  <si>
+    <t>Velázquez</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>SERVIDOR TIENDA</t>
+  </si>
+  <si>
+    <t>05/10/2024</t>
+  </si>
+  <si>
+    <t>Mañana</t>
+  </si>
+  <si>
+    <t>Tarde</t>
+  </si>
+  <si>
+    <t>EUROS</t>
+  </si>
+  <si>
+    <t>TARJETA VISA</t>
+  </si>
+  <si>
+    <t>GLOVO</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>295,50</t>
+  </si>
+  <si>
+    <t>857,99</t>
+  </si>
+  <si>
+    <t>563,28</t>
+  </si>
+  <si>
+    <t>73,80</t>
+  </si>
+  <si>
+    <t>1351,34</t>
+  </si>
+  <si>
+    <t>957,52</t>
+  </si>
+  <si>
+    <t>95,30</t>
+  </si>
+  <si>
+    <t>3,60</t>
+  </si>
+  <si>
+    <t>2331,75</t>
+  </si>
+  <si>
+    <t>553,54</t>
+  </si>
+  <si>
+    <t>1098,34</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +170,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +488,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
+++ b/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
@@ -476,11 +476,7 @@
           <t>Velázquez</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BAR</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>01/12/2024</t>
@@ -513,11 +509,7 @@
           <t>Velázquez</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BAR</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>01/12/2024</t>
@@ -550,11 +542,7 @@
           <t>Velázquez</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SERVIDOR TIENDA</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>01/12/2024</t>
@@ -587,11 +575,7 @@
           <t>Velázquez</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SERVIDOR TIENDA</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>01/12/2024</t>
@@ -624,11 +608,7 @@
           <t>Velázquez</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SERVIDOR TIENDA</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>01/12/2024</t>
@@ -661,11 +641,7 @@
           <t>Velázquez</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SERVIDOR TIENDA</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/12/2024</t>
@@ -698,11 +674,7 @@
           <t>Velázquez</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SERVIDOR TIENDA</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>01/12/2024</t>
@@ -735,11 +707,7 @@
           <t>Velázquez</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BAR</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/12/2024</t>
@@ -772,11 +740,7 @@
           <t>Velázquez</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>BAR</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>01/12/2024</t>
@@ -809,11 +773,7 @@
           <t>Velázquez</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>REMOTO</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/12/2024</t>

--- a/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
+++ b/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Velázquez" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tienda Velázquez" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,10 +473,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Velázquez</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Tienda Velázquez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>01/02/2025</t>
@@ -506,10 +510,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Velázquez</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Tienda Velázquez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>01/02/2025</t>
@@ -539,10 +547,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Velázquez</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Tienda Velázquez</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>01/02/2025</t>
@@ -572,10 +584,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Velázquez</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Tienda Velázquez</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>01/02/2025</t>
@@ -605,10 +621,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Velázquez</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Tienda Velázquez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SERVIDOR TIENDA</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>01/02/2025</t>
@@ -638,10 +658,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Velázquez</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Tienda Velázquez</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SERVIDOR TIENDA</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/02/2025</t>
@@ -671,10 +695,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Velázquez</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>Tienda Velázquez</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SERVIDOR TIENDA</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>01/02/2025</t>
@@ -704,10 +732,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Velázquez</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>Tienda Velázquez</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SERVIDOR TIENDA</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/02/2025</t>
@@ -737,10 +769,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Velázquez</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>Tienda Velázquez</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SERVIDOR TIENDA</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>01/02/2025</t>
@@ -770,10 +806,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Velázquez</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Tienda Velázquez</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SERVIDOR TIENDA</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/02/2025</t>

--- a/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
+++ b/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tienda Velázquez" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tienda - Velázquez" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>serie</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Nombre_TPV</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>fecha</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>cierre_tpv_desc</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nombre_MdP</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>total_ventas</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>total_operaciones</t>
         </is>
@@ -473,370 +478,420 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tienda Velázquez</t>
+          <t>Tienda - Velázquez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>BAR</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>01/02/2025</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>EUROS</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2673,90</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>72,75</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tienda Velázquez</t>
+          <t>Tienda - Velázquez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>BAR</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>01/02/2025</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>TARJETA VISA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5289,00</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>202,10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tienda Velázquez</t>
+          <t>Tienda - Velázquez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>BAR</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>01/02/2025</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Tarde</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>EUROS</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2067,00</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>83,40</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tienda Velázquez</t>
+          <t>Tienda - Velázquez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>BAR</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>01/02/2025</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tarde</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>TARJETA VISA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5096,40</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>139,80</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tienda Velázquez</t>
+          <t>Tienda - Velázquez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>SERVIDOR TIENDA</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>01/02/2025</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>EUROS</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4837,92</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>806,32</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>77</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tienda Velázquez</t>
+          <t>Tienda - Velázquez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>SERVIDOR TIENDA</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>01/02/2025</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>TARJETA VISA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>13386,18</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>2231,03</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>154</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tienda Velázquez</t>
+          <t>Tienda - Velázquez</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>SERVIDOR TIENDA</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>01/02/2025</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tarde</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>EUROS</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4216,56</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>702,76</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>79</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tienda Velázquez</t>
+          <t>Tienda - Velázquez</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>SERVIDOR TIENDA</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>01/02/2025</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tarde</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GLOVO</t>
+          <t>Mañana</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>218,40</t>
+          <t>SMS</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4,70</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tienda Velázquez</t>
+          <t>Tienda - Velázquez</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>SERVIDOR TIENDA</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>01/02/2025</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tarde</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SMS</t>
+          <t>Mañana</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>28,20</t>
+          <t>TARJETA VISA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1809,80</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>154</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tienda Velázquez</t>
+          <t>Tienda - Velázquez</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SERVIDOR TIENDA</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>BAR</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>01/02/2025</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tarde</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>TARJETA VISA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10858,80</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>93,20</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>

--- a/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
+++ b/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>cierre_tpv_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>cierre_tpv_desc</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nombre_MdP</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>total_ventas</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>total_operaciones</t>
         </is>
@@ -483,37 +488,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>SERVIDOR TIENDA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8868</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EUROS</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>72,75</t>
+          <t>SMS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>54,50</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -535,27 +543,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8869</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>TARJETA VISA</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>202,10</t>
+          <t>EUROS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>63,50</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -577,27 +588,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8869</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>EUROS</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>83,40</t>
+          <t>TARJETA VISA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>173,70</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -609,37 +623,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>SERVIDOR TIENDA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>8870</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>TARJETA VISA</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>139,80</t>
+          <t>EUROS</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>573,80</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -661,27 +678,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8870</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>EUROS</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>806,32</t>
+          <t>TARJETA VISA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>1134,89</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>151</t>
         </is>
       </c>
     </row>
@@ -693,37 +713,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SERVIDOR TIENDA</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8871</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>TARJETA VISA</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2231,03</t>
+          <t>EUROS</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>249,30</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -735,37 +758,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SERVIDOR TIENDA</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8871</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EUROS</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>702,76</t>
+          <t>TARJETA VISA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>370,77</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -787,27 +813,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>8872</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>SMS</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4,70</t>
+          <t>EUROS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>223,78</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -829,27 +858,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>8872</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>TARJETA VISA</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1809,80</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>837,98</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -871,27 +903,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>8873</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Mañana</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>TARJETA VISA</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>93,20</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>126,20</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>

--- a/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
+++ b/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>total_arqueo_ciego</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>total_ventas</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>total_operaciones</t>
         </is>
@@ -488,21 +493,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERVIDOR TIENDA</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8868</v>
+        <v>8829</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -511,17 +516,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SMS</t>
+          <t>EUROS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>54,50</t>
+          <t>551.30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>72,75</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -543,11 +553,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8869</v>
+        <v>8829</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -556,17 +566,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>EUROS</t>
+          <t>TARJETA VISA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>63,50</t>
+          <t>891.60</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>202,10</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -588,11 +603,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8869</v>
+        <v>8830</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -601,17 +616,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TARJETA VISA</t>
+          <t>EUROS</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>173,70</t>
+          <t>422.05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>83,40</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -623,21 +643,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERVIDOR TIENDA</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8870</v>
+        <v>8830</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -646,17 +666,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EUROS</t>
+          <t>TARJETA VISA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>573,80</t>
+          <t>867.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>139,80</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -678,11 +703,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8870</v>
+        <v>8828</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -691,17 +716,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>TARJETA VISA</t>
+          <t>EUROS</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1134,89</t>
+          <t>1204.30</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>806,32</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -713,21 +743,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>SERVIDOR TIENDA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8871</v>
+        <v>8828</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -736,17 +766,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>EUROS</t>
+          <t>TARJETA VISA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>249,30</t>
+          <t>2231.23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2231,03</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>154</t>
         </is>
       </c>
     </row>
@@ -758,21 +793,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>SERVIDOR TIENDA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8871</v>
+        <v>8831</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -781,17 +816,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>TARJETA VISA</t>
+          <t>EUROS</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>370,77</t>
+          <t>1130.48</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>702,76</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -813,11 +853,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8872</v>
+        <v>8831</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -826,17 +866,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>EUROS</t>
+          <t>SMS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>223,78</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4,70</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -858,11 +903,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8872</v>
+        <v>8831</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -876,12 +921,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>837,98</t>
+          <t>1801.60</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>1809,80</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>154</t>
         </is>
       </c>
     </row>
@@ -903,11 +953,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8873</v>
+        <v>8833</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -921,12 +971,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>126,20</t>
+          <t>1373.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>93,20</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>

--- a/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
+++ b/app/ficheros/datos/cierre_caja/resultado_panda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>Tienda</t>
   </si>
@@ -49,103 +49,127 @@
     <t>Tienda - Velázquez</t>
   </si>
   <si>
+    <t>V2</t>
+  </si>
+  <si>
     <t>V1</t>
   </si>
   <si>
-    <t>V2</t>
+    <t>BAR</t>
   </si>
   <si>
     <t>SERVIDOR TIENDA</t>
   </si>
   <si>
-    <t>BAR</t>
-  </si>
-  <si>
-    <t>16/02/2025</t>
+    <t>14/02/2025</t>
   </si>
   <si>
     <t>Mañana</t>
   </si>
   <si>
+    <t>EUROS</t>
+  </si>
+  <si>
+    <t>TARJETA VISA</t>
+  </si>
+  <si>
     <t>SMS</t>
   </si>
   <si>
-    <t>EUROS</t>
-  </si>
-  <si>
-    <t>TARJETA VISA</t>
+    <t>488.10</t>
+  </si>
+  <si>
+    <t>597.95</t>
+  </si>
+  <si>
+    <t>908.11</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>844.41</t>
-  </si>
-  <si>
-    <t>1267.81</t>
-  </si>
-  <si>
-    <t>415.11</t>
-  </si>
-  <si>
-    <t>879.01</t>
-  </si>
-  <si>
-    <t>1968.16</t>
-  </si>
-  <si>
-    <t>1557.20</t>
-  </si>
-  <si>
-    <t>1741.40</t>
-  </si>
-  <si>
-    <t>1,80</t>
-  </si>
-  <si>
-    <t>444,70</t>
-  </si>
-  <si>
-    <t>1266,01</t>
-  </si>
-  <si>
-    <t>171,20</t>
-  </si>
-  <si>
-    <t>383,35</t>
-  </si>
-  <si>
-    <t>576,05</t>
-  </si>
-  <si>
-    <t>784,30</t>
-  </si>
-  <si>
-    <t>377,90</t>
+    <t>1063.98</t>
+  </si>
+  <si>
+    <t>1199.50</t>
+  </si>
+  <si>
+    <t>2825.69</t>
+  </si>
+  <si>
+    <t>646.20</t>
+  </si>
+  <si>
+    <t>1226.39</t>
+  </si>
+  <si>
+    <t>2161.42</t>
+  </si>
+  <si>
+    <t>3045.82</t>
+  </si>
+  <si>
+    <t>38,00</t>
+  </si>
+  <si>
+    <t>100,55</t>
+  </si>
+  <si>
+    <t>488,06</t>
+  </si>
+  <si>
+    <t>5,40</t>
+  </si>
+  <si>
+    <t>1084,13</t>
+  </si>
+  <si>
+    <t>830,60</t>
+  </si>
+  <si>
+    <t>2791,89</t>
+  </si>
+  <si>
+    <t>189,00</t>
+  </si>
+  <si>
+    <t>468,34</t>
+  </si>
+  <si>
+    <t>685,51</t>
+  </si>
+  <si>
+    <t>1528,91</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>58</t>
+    <t>105</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>66</t>
   </si>
 </sst>
 </file>
@@ -503,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,7 +579,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>8884</v>
+        <v>8877</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -567,10 +591,10 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -587,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>8886</v>
+        <v>8877</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -599,10 +623,10 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -610,31 +634,31 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4">
-        <v>8886</v>
+        <v>8876</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -651,22 +675,22 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>8887</v>
+        <v>8876</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -683,22 +707,22 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>8887</v>
+        <v>8876</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -706,31 +730,31 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7">
-        <v>8888</v>
+        <v>8879</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -738,31 +762,31 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8">
-        <v>8888</v>
+        <v>8879</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -770,31 +794,127 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9">
-        <v>8889</v>
+        <v>8878</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>8878</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>8880</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>8880</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
